--- a/server/target/classes/inputs/t3.xlsx
+++ b/server/target/classes/inputs/t3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finn/repo/meeting-scheduler/src/main/resources/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E565E8BD-03DE-8B4B-818B-57574A90FEDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D849EAB8-0F5C-2D48-9A91-16F5961462A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34040" yWindow="460" windowWidth="16840" windowHeight="27400" xr2:uid="{B79D25B7-5550-B540-A36A-E2C0BE443EC4}"/>
   </bookViews>
@@ -500,8 +500,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
